--- a/data/trans_orig/Q17B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Clase-trans_orig.xlsx
@@ -734,22 +734,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,34</t>
+          <t>0,23; 0,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,41</t>
+          <t>0,25; 0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,34</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,42</t>
+          <t>0,26; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,28</t>
+          <t>0,2; 0,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,38</t>
+          <t>0,26; 0,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,39</t>
+          <t>0,29; 0,38</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,41</t>
+          <t>0,17; 0,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,42 +879,42 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,31</t>
+          <t>0,2; 0,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,37</t>
+          <t>0,24; 0,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,44</t>
+          <t>0,29; 0,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,33</t>
+          <t>0,23; 0,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,37</t>
+          <t>0,26; 0,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,35</t>
+          <t>0,23; 0,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,38</t>
+          <t>0,27; 0,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,32</t>
+          <t>0,24; 0,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,29</t>
+          <t>0,07; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,51</t>
+          <t>0,35; 0,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,49</t>
+          <t>0,31; 0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,31</t>
+          <t>0,1; 0,32</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,33</t>
+          <t>0,25; 0,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,47</t>
+          <t>0,35; 0,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,5</t>
+          <t>0,35; 0,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,37</t>
+          <t>0,14; 0,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,41</t>
+          <t>0,33; 0,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,31</t>
+          <t>0,19; 0,31</t>
         </is>
       </c>
     </row>
@@ -1294,17 +1294,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,44</t>
+          <t>0,3; 0,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,28</t>
+          <t>0,18; 0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,48</t>
+          <t>0,37; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,54</t>
+          <t>0,31; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,41</t>
+          <t>0,33; 0,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,48</t>
+          <t>0,27; 0,44</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,23</t>
+          <t>0,12; 0,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,34</t>
+          <t>0,15; 0,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,19</t>
+          <t>0,05; 0,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,48</t>
+          <t>0,36; 0,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,48</t>
+          <t>0,37; 0,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,26</t>
+          <t>0,19; 0,26</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,26</t>
+          <t>0,19; 0,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,35</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,38</t>
+          <t>0,34; 0,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">

--- a/data/trans_orig/Q17B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
